--- a/eda/tic_domicilios/tic_domicilios_2024_criterios_g3.xlsx
+++ b/eda/tic_domicilios/tic_domicilios_2024_criterios_g3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lazar\Master-Dissertation\eda\tic_domicilios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB534D1-E60B-4A69-9232-B3692F9BE609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02842C95-DD89-4520-BF28-2F8DCB040963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t>Descrição</t>
   </si>
   <si>
-    <t>G3--1</t>
-  </si>
-  <si>
     <t>G3-2</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
   </si>
   <si>
     <t>Não utilizou a Internet para realizar atividades de interação com autoridades públicas.</t>
+  </si>
+  <si>
+    <t>G3-1</t>
   </si>
 </sst>
 </file>
@@ -112,9 +112,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -402,41 +401,41 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
